--- a/assets/file/template/Chemical list.xlsx
+++ b/assets/file/template/Chemical list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\amecnas\amecweb\wwwroot\development\safety\assets\file\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docker\src\safety\assets\file\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D672E4B3-735F-4B53-9CC7-615896B35501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067CD79-857E-4998-A9F3-AFA332778ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>MANUFACTURER / VENDOR</t>
   </si>
   <si>
-    <t>UN CLASS</t>
-  </si>
-  <si>
     <t>Rev.</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   <si>
     <t>PUR.
 INCHARGE</t>
+  </si>
+  <si>
+    <t>CLASS</t>
   </si>
 </sst>
 </file>
@@ -563,18 +563,18 @@
   <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="7" customWidth="1"/>
-    <col min="6" max="7" width="43.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="7" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="3.7109375" style="7"/>
+    <col min="1" max="1" width="5.75" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="7" customWidth="1"/>
+    <col min="6" max="7" width="43.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="7" customWidth="1"/>
+    <col min="9" max="10" width="9.125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="3.75" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.65">
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
@@ -605,13 +605,13 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -727,7 +727,7 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -736,10 +736,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -767,20 +767,20 @@
     <row r="11" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -808,20 +808,20 @@
     <row r="12" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -849,20 +849,20 @@
     <row r="13" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -890,20 +890,20 @@
     <row r="14" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>

--- a/assets/file/template/Chemical list.xlsx
+++ b/assets/file/template/Chemical list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docker\src\safety\assets\file\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067CD79-857E-4998-A9F3-AFA332778ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887BD34B-F31D-4ECB-BD3C-D97C0930D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>LIST OF SDS_CHEMICAL USER OR HANDLING in 2024</t>
   </si>
@@ -42,61 +42,13 @@
     <t>Rev.</t>
   </si>
   <si>
-    <t>Remark : UN Classification of Hazardous Substances</t>
-  </si>
-  <si>
-    <t>Class 5</t>
-  </si>
-  <si>
-    <t>Oxidizers and organic peroxides(ตัวเติมออกซิเจนและสารประกอบอินทรีย์เปอร์ออกไซด์)</t>
-  </si>
-  <si>
     <t>Class 1</t>
   </si>
   <si>
-    <t xml:space="preserve">   Explosives  (วัตถุระเบิด)</t>
-  </si>
-  <si>
-    <t>Class 6</t>
-  </si>
-  <si>
-    <t>Class 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Gases  (ก๊าซต่างๆ)</t>
-  </si>
-  <si>
     <t>Class 7</t>
   </si>
   <si>
-    <t>Radioactive material  (สารกัมมันตรังสี)</t>
-  </si>
-  <si>
-    <t>Class 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Flammable Liquid and Combustible Liquid  (ของเหลวไวไฟ)</t>
-  </si>
-  <si>
-    <t>Class 8</t>
-  </si>
-  <si>
-    <t>Corrosive material (สารกัดกร่อน)</t>
-  </si>
-  <si>
-    <t>Class 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Flammable Solid ; Spontaneously Combustible meaterial  (ของแข็งลุกติดไฟได้)</t>
-  </si>
-  <si>
     <t>Class 9</t>
-  </si>
-  <si>
-    <t>Miscellaneous hazardous material (สารหรือวัตถุอื่นที่อาจเป็นอันตรายได้)</t>
-  </si>
-  <si>
-    <t>Poisonous material and Infectious substances(สารพิษและสารที่ทำให้เกิดโรคติดต่อ)</t>
   </si>
   <si>
     <t>RECEIVED 
@@ -120,13 +72,139 @@
   </si>
   <si>
     <t>CLASS</t>
+  </si>
+  <si>
+    <t>Remark : Classification of Hazardous Substances</t>
+  </si>
+  <si>
+    <t>วัตถุระเบิด</t>
+  </si>
+  <si>
+    <t>ก๊าซอัด ก๊าซเหลว ก๊าซละลายได้ภายใต้ความดัน</t>
+  </si>
+  <si>
+    <t>Class 2B</t>
+  </si>
+  <si>
+    <t>ก๊าซภายใต้ความดันในกระป๋องเสปร์ย</t>
+  </si>
+  <si>
+    <t>Class 2A</t>
+  </si>
+  <si>
+    <t>Class 3A</t>
+  </si>
+  <si>
+    <t>ของเหลวไวไฟ จุดวาบไฟไม่เกิน 60 ºC</t>
+  </si>
+  <si>
+    <t>ของเหลวไวไฟ จุดวาบไฟมากกว่า 60 ºC-93 ºC คุณสมบัติเข้ากับน้ำไม่ได้</t>
+  </si>
+  <si>
+    <t>Class 3B</t>
+  </si>
+  <si>
+    <t>ของแข็งไวไฟ ที่มีคุณสมบัติระเบิด</t>
+  </si>
+  <si>
+    <t>Class 4.1A</t>
+  </si>
+  <si>
+    <t>Class 4.1B</t>
+  </si>
+  <si>
+    <t>Class 4.2</t>
+  </si>
+  <si>
+    <t>Class 4.3</t>
+  </si>
+  <si>
+    <t>Class 5.1</t>
+  </si>
+  <si>
+    <t>Class 5.2</t>
+  </si>
+  <si>
+    <t>ของแข็งไวไฟ ที่ไม่มีคุณสมบัติระเบิด</t>
+  </si>
+  <si>
+    <t>สารที่มีความเสี่ยงต่อการลุกไหม้ได้เอง</t>
+  </si>
+  <si>
+    <t>สารให้ก๊าซไวไฟ เมื่อสัมผัสกับน้ำ</t>
+  </si>
+  <si>
+    <t>สารออกซิไดซ์</t>
+  </si>
+  <si>
+    <t>สารเปอร์ออกซิไดซ์</t>
+  </si>
+  <si>
+    <t>Class 6.1A</t>
+  </si>
+  <si>
+    <t>Class 6.1B</t>
+  </si>
+  <si>
+    <t>Class 6.2</t>
+  </si>
+  <si>
+    <t>Class 8A</t>
+  </si>
+  <si>
+    <t>Class 8B</t>
+  </si>
+  <si>
+    <t>Class 10</t>
+  </si>
+  <si>
+    <t>Class 11</t>
+  </si>
+  <si>
+    <t>Class 12</t>
+  </si>
+  <si>
+    <t>Class 13</t>
+  </si>
+  <si>
+    <t>สารติดไฟได้ ที่มีคุณสมบัติเป็นพิษ</t>
+  </si>
+  <si>
+    <t>สารไม่ติดไฟ ที่มีคุณสมบัติเป็นพิษ</t>
+  </si>
+  <si>
+    <t>สารติดเชื้อ</t>
+  </si>
+  <si>
+    <t>สารกัมมันตรังสี</t>
+  </si>
+  <si>
+    <t>สารติดไฟ ที่มีคุณสมบัติกัดกร่อน</t>
+  </si>
+  <si>
+    <t>สารไม่ติดไฟ ที่มีคุณสมบัติกัดกร่อน</t>
+  </si>
+  <si>
+    <t>วัตถุอันตรายประเภทอื่นๆ</t>
+  </si>
+  <si>
+    <t>ของเหลวติดไฟ</t>
+  </si>
+  <si>
+    <t>ของแข็งติดไฟได้</t>
+  </si>
+  <si>
+    <t>ของเหลวไม่ติดไฟ</t>
+  </si>
+  <si>
+    <t>ของแข็งไม่ติดไฟ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +243,12 @@
       <color theme="1"/>
       <name val="FreesiaUPC"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -560,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EBCC3A-D88C-4448-8BA2-63DADE735191}">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H10" sqref="H10:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -587,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
@@ -605,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>4</v>
@@ -727,7 +811,7 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -736,10 +820,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -767,20 +851,20 @@
     <row r="11" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -808,20 +892,20 @@
     <row r="12" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -849,20 +933,20 @@
     <row r="13" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -890,20 +974,20 @@
     <row r="14" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -930,14 +1014,22 @@
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -959,7 +1051,87 @@
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
     </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>